--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B9FF717D-E3A6-46F3-BCD4-521F54B0764B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6C9389-655A-4251-875D-1FA12815E2AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +184,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4306DA34-464E-412D-BB8D-F5D3B10AF0DB}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -462,12 +464,16 @@
   <dimension ref="A4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -487,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45200.958472222221</v>
       </c>
@@ -507,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45200.916805555556</v>
       </c>
@@ -527,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45200.875138888892</v>
       </c>
@@ -547,7 +553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45200.833472222221</v>
       </c>
@@ -567,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>45200.791805555556</v>
       </c>
@@ -587,7 +593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45200.750138888892</v>
       </c>
@@ -607,7 +613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45200.708472222221</v>
       </c>
@@ -627,7 +633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>45200.666805555556</v>
       </c>
@@ -647,7 +653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45200.625138888892</v>
       </c>
@@ -667,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>45200.583472222221</v>
       </c>
@@ -687,7 +693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>45200.541805555556</v>
       </c>
@@ -707,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>45200.500138888892</v>
       </c>
@@ -727,7 +733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45200.458472222221</v>
       </c>
@@ -747,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>45200.416805555556</v>
       </c>
@@ -767,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>45200.375138888892</v>
       </c>
@@ -787,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>45200.333472222221</v>
       </c>
@@ -807,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45200.291805555556</v>
       </c>
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>45200.250138888892</v>
       </c>
@@ -847,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>45200.208472222221</v>
       </c>
@@ -867,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45200.166805555556</v>
       </c>
@@ -887,7 +893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>45200.125138888892</v>
       </c>
@@ -907,7 +913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>45200.083472222221</v>
       </c>
@@ -927,7 +933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>45200.041805555556</v>
       </c>
@@ -947,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>45200.000138888892</v>
       </c>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6C9389-655A-4251-875D-1FA12815E2AF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D38809-5BBE-4A23-A465-688FC896D112}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
-  <si>
-    <t>DATA DADO</t>
-  </si>
-  <si>
-    <t>COD FLU</t>
-  </si>
-  <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>NIVEL</t>
-  </si>
-  <si>
-    <t>CHUVA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>VAZAO</t>
   </si>
   <si>
-    <t>Balbina Pitinguinha</t>
-  </si>
-  <si>
     <t>43.43</t>
   </si>
   <si>
@@ -142,6 +124,15 @@
   </si>
   <si>
     <t>43.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Hora </t>
+  </si>
+  <si>
+    <t>Chuva</t>
+  </si>
+  <si>
+    <t>Nível</t>
   </si>
 </sst>
 </file>
@@ -177,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,516 +453,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F28"/>
+  <dimension ref="A4:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45200.958472222221</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45200.916805555556</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45200.875138888892</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45200.833472222221</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>45200.958472222221</v>
-      </c>
-      <c r="B5">
-        <v>16024900</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>308</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>45200.916805555556</v>
-      </c>
-      <c r="B6">
-        <v>16024900</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>45200.875138888892</v>
-      </c>
-      <c r="B7">
-        <v>16024900</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>45200.833472222221</v>
-      </c>
-      <c r="B8">
-        <v>16024900</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45200.791805555556</v>
       </c>
-      <c r="B9">
-        <v>16024900</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45200.750138888892</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45200.708472222221</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45200.666805555556</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>45200.750138888892</v>
-      </c>
-      <c r="B10">
-        <v>16024900</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45200.625138888892</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>45200.708472222221</v>
-      </c>
-      <c r="B11">
-        <v>16024900</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45200.583472222221</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>45200.666805555556</v>
-      </c>
-      <c r="B12">
-        <v>16024900</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45200.541805555556</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>45200.625138888892</v>
-      </c>
-      <c r="B13">
-        <v>16024900</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45200.500138888892</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45200.458472222221</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45200.416805555556</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18">
+        <v>308</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45200.375138888892</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19">
+        <v>308</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45200.333472222221</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45200.291805555556</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45200.250138888892</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>45200.583472222221</v>
-      </c>
-      <c r="B14">
-        <v>16024900</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45200.208472222221</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>45200.541805555556</v>
-      </c>
-      <c r="B15">
-        <v>16024900</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45200.166805555556</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24">
+        <v>309</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45200.125138888892</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>45200.500138888892</v>
-      </c>
-      <c r="B16">
-        <v>16024900</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>45200.458472222221</v>
-      </c>
-      <c r="B17">
-        <v>16024900</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>45200.416805555556</v>
-      </c>
-      <c r="B18">
-        <v>16024900</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>308</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>45200.375138888892</v>
-      </c>
-      <c r="B19">
-        <v>16024900</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>308</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>45200.333472222221</v>
-      </c>
-      <c r="B20">
-        <v>16024900</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>45200.291805555556</v>
-      </c>
-      <c r="B21">
-        <v>16024900</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>45200.250138888892</v>
-      </c>
-      <c r="B22">
-        <v>16024900</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45200.083472222221</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>45200.208472222221</v>
-      </c>
-      <c r="B23">
-        <v>16024900</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45200.041805555556</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>45200.166805555556</v>
-      </c>
-      <c r="B24">
-        <v>16024900</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>309</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>45200.125138888892</v>
-      </c>
-      <c r="B25">
-        <v>16024900</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45200.000138888892</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D28" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>45200.083472222221</v>
-      </c>
-      <c r="B26">
-        <v>16024900</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>45200.041805555556</v>
-      </c>
-      <c r="B27">
-        <v>16024900</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>45200.000138888892</v>
-      </c>
-      <c r="B28">
-        <v>16024900</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D38809-5BBE-4A23-A465-688FC896D112}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C2BC16-5779-4B8E-8B26-DD92DEBEA2CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
-    <t>VAZAO</t>
-  </si>
-  <si>
     <t>43.43</t>
   </si>
   <si>
@@ -129,10 +126,13 @@
     <t xml:space="preserve">Data Hora </t>
   </si>
   <si>
-    <t>Chuva</t>
-  </si>
-  <si>
-    <t>Nível</t>
+    <t>Chuva (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nível (cm) </t>
+  </si>
+  <si>
+    <t>Vazão (m3/s)</t>
   </si>
 </sst>
 </file>
@@ -168,9 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,315 +461,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45200.958472222221</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
         <v>308</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45200.916805555556</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45200.875138888892</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45200.833472222221</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45200.791805555556</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45200.750138888892</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45200.708472222221</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45200.666805555556</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45200.625138888892</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45200.583472222221</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45200.541805555556</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45200.500138888892</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45200.458472222221</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45200.416805555556</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
         <v>308</v>
       </c>
-      <c r="D18" t="s">
-        <v>1</v>
+      <c r="D18" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45200.375138888892</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2">
         <v>308</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45200.333472222221</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45200.291805555556</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45200.250138888892</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45200.208472222221</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45200.166805555556</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
         <v>309</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45200.125138888892</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45200.083472222221</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45200.041805555556</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45200.000138888892</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C2BC16-5779-4B8E-8B26-DD92DEBEA2CC}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B01E4D-19C6-4042-B83D-9940B8C41DC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,103 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
-  <si>
-    <t>43.43</t>
-  </si>
-  <si>
-    <t>308.2</t>
-  </si>
-  <si>
-    <t>43.49</t>
-  </si>
-  <si>
-    <t>308.5</t>
-  </si>
-  <si>
-    <t>43.57</t>
-  </si>
-  <si>
-    <t>308.4</t>
-  </si>
-  <si>
-    <t>43.54</t>
-  </si>
-  <si>
-    <t>307.9</t>
-  </si>
-  <si>
-    <t>43.40</t>
-  </si>
-  <si>
-    <t>307.8</t>
-  </si>
-  <si>
-    <t>43.38</t>
-  </si>
-  <si>
-    <t>307.7</t>
-  </si>
-  <si>
-    <t>43.35</t>
-  </si>
-  <si>
-    <t>307.6</t>
-  </si>
-  <si>
-    <t>43.32</t>
-  </si>
-  <si>
-    <t>307.5</t>
-  </si>
-  <si>
-    <t>43.29</t>
-  </si>
-  <si>
-    <t>307.4</t>
-  </si>
-  <si>
-    <t>43.27</t>
-  </si>
-  <si>
-    <t>308.7</t>
-  </si>
-  <si>
-    <t>43.62</t>
-  </si>
-  <si>
-    <t>308.9</t>
-  </si>
-  <si>
-    <t>43.68</t>
-  </si>
-  <si>
-    <t>43.71</t>
-  </si>
-  <si>
-    <t>309.2</t>
-  </si>
-  <si>
-    <t>43.76</t>
-  </si>
-  <si>
-    <t>309.5</t>
-  </si>
-  <si>
-    <t>43.85</t>
-  </si>
-  <si>
-    <t>309.7</t>
-  </si>
-  <si>
-    <t>43.90</t>
-  </si>
-  <si>
-    <t>309.9</t>
-  </si>
-  <si>
-    <t>43.96</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Data Hora </t>
   </si>
@@ -168,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -177,6 +81,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:D28"/>
+  <dimension ref="A4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,20 +376,21 @@
     <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,10 +399,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2">
-        <v>308</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>3082</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43.43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,11 +410,11 @@
         <v>45200.916805555556</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
+      <c r="C6" s="2">
+        <v>3082</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43.49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,11 +422,11 @@
         <v>45200.875138888892</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
+      <c r="C7" s="2">
+        <v>3085</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43.49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,11 +434,11 @@
         <v>45200.833472222221</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
+      <c r="C8" s="2">
+        <v>3084</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43.57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,11 +446,11 @@
         <v>45200.791805555556</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
+      <c r="C9" s="2">
+        <v>3079</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43.54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,11 +458,11 @@
         <v>45200.750138888892</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
+      <c r="C10" s="2">
+        <v>3078</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43.4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,11 +470,11 @@
         <v>45200.708472222221</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="2">
+        <v>3077</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43.38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,11 +482,11 @@
         <v>45200.666805555556</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
+      <c r="C12" s="2">
+        <v>3076</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43.35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,11 +494,11 @@
         <v>45200.625138888892</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
+      <c r="C13" s="2">
+        <v>3075</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43.32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,11 +506,11 @@
         <v>45200.583472222221</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
+      <c r="C14" s="2">
+        <v>3074</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43.29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,11 +518,11 @@
         <v>45200.541805555556</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
+      <c r="C15" s="2">
+        <v>3076</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43.27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,11 +530,11 @@
         <v>45200.500138888892</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
+      <c r="C16" s="2">
+        <v>3079</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43.32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,11 +542,11 @@
         <v>45200.458472222221</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
+      <c r="C17" s="2">
+        <v>3080</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43.4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,10 +555,10 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
-        <v>308</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>0</v>
+        <v>3080</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43.43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,10 +567,10 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2">
-        <v>308</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>0</v>
+        <v>3082</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43.43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,11 +578,11 @@
         <v>45200.333472222221</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
+      <c r="C20" s="2">
+        <v>3085</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43.49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,11 +590,11 @@
         <v>45200.291805555556</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
+      <c r="C21" s="2">
+        <v>3087</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43.57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,11 +602,11 @@
         <v>45200.250138888892</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
+      <c r="C22" s="2">
+        <v>3089</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43.62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,11 +614,11 @@
         <v>45200.208472222221</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
+      <c r="C23" s="2">
+        <v>3090</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43.68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,10 +627,10 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2">
-        <v>309</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>3092</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43.71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,11 +638,11 @@
         <v>45200.125138888892</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>25</v>
+      <c r="C25" s="2">
+        <v>3095</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43.76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,11 +650,11 @@
         <v>45200.083472222221</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>27</v>
+      <c r="C26" s="2">
+        <v>3097</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43.85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,11 +662,11 @@
         <v>45200.041805555556</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>29</v>
+      <c r="C27" s="2">
+        <v>3099</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43.9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,14 +674,12 @@
         <v>45200.000138888892</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
+      <c r="D28" s="2">
+        <v>43.96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B01E4D-19C6-4042-B83D-9940B8C41DC6}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B93F448-E10E-4E79-BBE6-A67CEB71A9BA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
         <v>3082</v>
       </c>
       <c r="D5" s="2">
-        <v>43.43</v>
+        <v>43.49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B93F448-E10E-4E79-BBE6-A67CEB71A9BA}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67F9B8D-4135-47B1-A653-858E6684E491}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F28"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,302 +379,305 @@
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45200.958472222221</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2">
+        <v>308</v>
+      </c>
+      <c r="D2">
+        <v>43.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45200.916805555556</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3">
+        <v>308.2</v>
+      </c>
+      <c r="D3">
+        <v>43.49</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>45200.875138888892</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4">
+        <v>308.2</v>
+      </c>
+      <c r="D4">
+        <v>43.49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45200.958472222221</v>
+        <v>45200.833472222221</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="2">
-        <v>3082</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43.49</v>
+      <c r="C5">
+        <v>308.5</v>
+      </c>
+      <c r="D5">
+        <v>43.57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45200.916805555556</v>
+        <v>45200.791805555556</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="2">
-        <v>3082</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43.49</v>
+      <c r="C6">
+        <v>308.39999999999998</v>
+      </c>
+      <c r="D6">
+        <v>43.54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45200.875138888892</v>
+        <v>45200.750138888892</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="2">
-        <v>3085</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43.49</v>
+      <c r="C7">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="D7">
+        <v>43.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45200.833472222221</v>
+        <v>45200.708472222221</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="2">
-        <v>3084</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43.57</v>
+      <c r="C8">
+        <v>307.8</v>
+      </c>
+      <c r="D8">
+        <v>43.38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45200.791805555556</v>
+        <v>45200.666805555556</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="2">
-        <v>3079</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43.54</v>
+      <c r="C9">
+        <v>307.7</v>
+      </c>
+      <c r="D9">
+        <v>43.35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45200.750138888892</v>
+        <v>45200.625138888892</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="2">
-        <v>3078</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43.4</v>
+      <c r="C10">
+        <v>307.60000000000002</v>
+      </c>
+      <c r="D10">
+        <v>43.32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45200.708472222221</v>
+        <v>45200.583472222221</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="2">
-        <v>3077</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43.38</v>
+      <c r="C11">
+        <v>307.5</v>
+      </c>
+      <c r="D11">
+        <v>43.29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45200.666805555556</v>
+        <v>45200.541805555556</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2">
-        <v>3076</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43.35</v>
+      <c r="C12">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="D12">
+        <v>43.27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45200.625138888892</v>
+        <v>45200.500138888892</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="2">
-        <v>3075</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13">
+        <v>307.60000000000002</v>
+      </c>
+      <c r="D13">
         <v>43.32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45200.583472222221</v>
+        <v>45200.458472222221</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="2">
-        <v>3074</v>
-      </c>
-      <c r="D14" s="2">
-        <v>43.29</v>
+      <c r="C14">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="D14">
+        <v>43.4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45200.541805555556</v>
+        <v>45200.416805555556</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="2">
-        <v>3076</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43.27</v>
+      <c r="C15">
+        <v>308</v>
+      </c>
+      <c r="D15">
+        <v>43.43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45200.500138888892</v>
+        <v>45200.375138888892</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2">
-        <v>3079</v>
-      </c>
-      <c r="D16" s="2">
-        <v>43.32</v>
+      <c r="C16">
+        <v>308</v>
+      </c>
+      <c r="D16">
+        <v>43.43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45200.458472222221</v>
+        <v>45200.333472222221</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="2">
-        <v>3080</v>
-      </c>
-      <c r="D17" s="2">
-        <v>43.4</v>
+      <c r="C17">
+        <v>308.2</v>
+      </c>
+      <c r="D17">
+        <v>43.49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45200.416805555556</v>
+        <v>45200.291805555556</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="2">
-        <v>3080</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43.43</v>
+      <c r="C18">
+        <v>308.5</v>
+      </c>
+      <c r="D18">
+        <v>43.57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45200.375138888892</v>
+        <v>45200.250138888892</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="2">
-        <v>3082</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43.43</v>
+      <c r="C19">
+        <v>308.7</v>
+      </c>
+      <c r="D19">
+        <v>43.62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45200.333472222221</v>
+        <v>45200.208472222221</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="2">
-        <v>3085</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43.49</v>
+      <c r="C20">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="D20">
+        <v>43.68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45200.291805555556</v>
+        <v>45200.166805555556</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="2">
-        <v>3087</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43.57</v>
+      <c r="C21">
+        <v>309</v>
+      </c>
+      <c r="D21">
+        <v>43.71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45200.250138888892</v>
+        <v>45200.125138888892</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="2">
-        <v>3089</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43.62</v>
+      <c r="C22">
+        <v>309.2</v>
+      </c>
+      <c r="D22">
+        <v>43.76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45200.208472222221</v>
+        <v>45200.083472222221</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="2">
-        <v>3090</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43.68</v>
+      <c r="C23">
+        <v>309.5</v>
+      </c>
+      <c r="D23">
+        <v>43.85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45200.166805555556</v>
+        <v>45200.041805555556</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="2">
-        <v>3092</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43.71</v>
+      <c r="C24">
+        <v>309.7</v>
+      </c>
+      <c r="D24">
+        <v>43.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45200.125138888892</v>
+        <v>45200.000138888892</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="2">
-        <v>3095</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43.76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45200.083472222221</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2">
-        <v>3097</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>45200.041805555556</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2">
-        <v>3099</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>45200.000138888892</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="D28" s="2">
+      <c r="C25">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="D25">
         <v>43.96</v>
       </c>
     </row>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67F9B8D-4135-47B1-A653-858E6684E491}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{43F75A98-87E0-485F-9CA3-E3A8221283F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Data Hora </t>
-  </si>
-  <si>
     <t>Chuva (mm)</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Vazão (m3/s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data-Hora </t>
   </si>
 </sst>
 </file>
@@ -366,9 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -381,16 +379,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{43F75A98-87E0-485F-9CA3-E3A8221283F6}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{940C8B79-ECD7-4AED-ADF9-9DA8D7F5B58A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,16 +37,79 @@
   </si>
   <si>
     <t xml:space="preserve">Data-Hora </t>
+  </si>
+  <si>
+    <t>31.72</t>
+  </si>
+  <si>
+    <t>264.5</t>
+  </si>
+  <si>
+    <t>31.85</t>
+  </si>
+  <si>
+    <t>264.7</t>
+  </si>
+  <si>
+    <t>31.90</t>
+  </si>
+  <si>
+    <t>266.3</t>
+  </si>
+  <si>
+    <t>32.29</t>
+  </si>
+  <si>
+    <t>265.1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>265.9</t>
+  </si>
+  <si>
+    <t>32.21</t>
+  </si>
+  <si>
+    <t>265.5</t>
+  </si>
+  <si>
+    <t>32.11</t>
+  </si>
+  <si>
+    <t>264.2</t>
+  </si>
+  <si>
+    <t>31.77</t>
+  </si>
+  <si>
+    <t>263.6</t>
+  </si>
+  <si>
+    <t>31.62</t>
+  </si>
+  <si>
+    <t>263.4</t>
+  </si>
+  <si>
+    <t>31.57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -364,13 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -378,7 +443,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -392,294 +457,945 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>45200.958472222221</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>308</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>43.43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>45200.916805555556</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>308.2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>43.49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>45200.875138888892</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>308.2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>43.49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>45200.833472222221</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>308.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>43.57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>45200.791805555556</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>308.39999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>43.54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>45200.750138888892</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>307.89999999999998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>43.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>45200.708472222221</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>307.8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>43.38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>45200.666805555556</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>307.7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>43.35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>45200.625138888892</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>307.60000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>43.32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>45200.583472222221</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>307.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>43.29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>45200.541805555556</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>307.39999999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>43.27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>45200.500138888892</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>307.60000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>43.32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>45200.458472222221</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>307.89999999999998</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>43.4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>45200.416805555556</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>308</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>43.43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>45200.375138888892</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>308</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>43.43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>45200.333472222221</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>308.2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>43.49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>45200.291805555556</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>308.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>43.57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>45200.250138888892</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>308.7</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>43.62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>45200.208472222221</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>308.89999999999998</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>43.68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>45200.166805555556</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>309</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>43.71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>45200.125138888892</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>309.2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>43.76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>45200.083472222221</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>309.5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>43.85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>45200.041805555556</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>309.7</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>43.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>45200.000138888892</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>309.89999999999998</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>43.96</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45215.041805555556</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="D27" s="2">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45215.083472222221</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="D28" s="2">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>45215.125138888892</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2">
+        <v>264.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>45215.166805555556</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="D30" s="2">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>45215.208472222221</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2">
+        <v>264.7</v>
+      </c>
+      <c r="D31" s="2">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>45215.250138888892</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2">
+        <v>264.7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>45215.291805555556</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2">
+        <v>265</v>
+      </c>
+      <c r="D33" s="2">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>45215.333472222221</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>45215.375138888892</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2">
+        <v>266.3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>32.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>45215.416805555556</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2">
+        <v>266.5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>45215.458472222221</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2">
+        <v>266.2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>45215.500138888892</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2">
+        <v>265.3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>32.049999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>45215.541805555556</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2">
+        <v>265</v>
+      </c>
+      <c r="D39" s="2">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>45215.583472222221</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2">
+        <v>265.2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>45215.625138888892</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>45215.666805555556</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2">
+        <v>264.8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>31.93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>45215.708472222221</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2">
+        <v>265.2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>45215.750138888892</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2">
+        <v>266</v>
+      </c>
+      <c r="D44" s="2">
+        <v>32.229999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>45215.791805555556</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2">
+        <v>266</v>
+      </c>
+      <c r="D45" s="2">
+        <v>32.229999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45215.833472222221</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2">
+        <v>265.8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>32.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45215.875138888892</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2">
+        <v>265.7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>32.159999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45215.916805555556</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2">
+        <v>265.7</v>
+      </c>
+      <c r="D48" s="2">
+        <v>32.159999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>45215.958472222221</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2">
+        <v>265.7</v>
+      </c>
+      <c r="D49" s="2">
+        <v>32.159999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45216.000138888892</v>
+      </c>
+      <c r="C50" s="2">
+        <v>265.7</v>
+      </c>
+      <c r="D50" s="2">
+        <v>32.159999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45216.041805555556</v>
+      </c>
+      <c r="C51" s="2">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="D51" s="2">
+        <v>32.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45216.083472222221</v>
+      </c>
+      <c r="C52" s="2">
+        <v>266.2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45216.125138888892</v>
+      </c>
+      <c r="C53" s="2">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="D53" s="2">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45216.166805555556</v>
+      </c>
+      <c r="C54" s="2">
+        <v>266.2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45216.208472222221</v>
+      </c>
+      <c r="C55" s="2">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="D55" s="2">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45216.250138888892</v>
+      </c>
+      <c r="C56" s="2">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="D56" s="2">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45216.291805555556</v>
+      </c>
+      <c r="C57" s="2">
+        <v>266.2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45216.333472222221</v>
+      </c>
+      <c r="C58" s="2">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="D58" s="2">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45216.375138888892</v>
+      </c>
+      <c r="C59" s="2">
+        <v>266.5</v>
+      </c>
+      <c r="D59" s="2">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45216.416805555556</v>
+      </c>
+      <c r="C60" s="2">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="D60" s="2">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45216.458472222221</v>
+      </c>
+      <c r="C61" s="2">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="D61" s="2">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45216.500138888892</v>
+      </c>
+      <c r="C62" s="2">
+        <v>265.8</v>
+      </c>
+      <c r="D62" s="2">
+        <v>32.18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45216.541805555556</v>
+      </c>
+      <c r="C63" s="2">
+        <v>265.5</v>
+      </c>
+      <c r="D63" s="2">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45216.583472222221</v>
+      </c>
+      <c r="C64" s="2">
+        <v>265.5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45216.625138888892</v>
+      </c>
+      <c r="C65" s="2">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="D65" s="2">
+        <v>32.130000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45216.666805555556</v>
+      </c>
+      <c r="C66" s="2">
+        <v>265.5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45216.708472222221</v>
+      </c>
+      <c r="C67" s="2">
+        <v>265.3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>32.049999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45216.750138888892</v>
+      </c>
+      <c r="C68" s="2">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="D68" s="2">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45216.791805555556</v>
+      </c>
+      <c r="C69" s="2">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="D69" s="2">
+        <v>32.130000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45216.833472222221</v>
+      </c>
+      <c r="C70" s="2">
+        <v>265.8</v>
+      </c>
+      <c r="D70" s="2">
+        <v>32.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45216.875138888892</v>
+      </c>
+      <c r="C71" s="2">
+        <v>267</v>
+      </c>
+      <c r="D71" s="2">
+        <v>32.229999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45216.916805555556</v>
+      </c>
+      <c r="C72" s="2">
+        <v>266.2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45216.958472222221</v>
+      </c>
+      <c r="C73" s="2">
+        <v>266.3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>32.31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45217.000138888892</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45217.041805555556</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45217.083472222221</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45217.125138888892</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45217.166805555556</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45217.208472222221</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45217.250138888892</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45217.291805555556</v>
+      </c>
+      <c r="C81" s="2">
+        <v>265</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45217.333472222221</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45217.375138888892</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{940C8B79-ECD7-4AED-ADF9-9DA8D7F5B58A}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB4B703A-1C6A-402A-BDA6-E7E91B18F6B2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -94,6 +94,36 @@
   </si>
   <si>
     <t>31.57</t>
+  </si>
+  <si>
+    <t>263.3</t>
+  </si>
+  <si>
+    <t>31.54</t>
+  </si>
+  <si>
+    <t>263.1</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>262.7</t>
+  </si>
+  <si>
+    <t>31.39</t>
+  </si>
+  <si>
+    <t>262.4</t>
+  </si>
+  <si>
+    <t>31.31</t>
+  </si>
+  <si>
+    <t>262.6</t>
+  </si>
+  <si>
+    <t>31.36</t>
   </si>
 </sst>
 </file>
@@ -427,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,6 +1424,182 @@
         <v>22</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45217.000138888892</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45217.041805555556</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45217.083472222221</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45217.125138888892</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45217.166805555556</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45217.208472222221</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45217.250138888892</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45217.291805555556</v>
+      </c>
+      <c r="C91" s="2">
+        <v>265</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45217.333472222221</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45217.375138888892</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45217.416805555556</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45217.458472222221</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45217.500138888892</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45217.541805555556</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45217.583472222221</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45217.625138888892</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB4B703A-1C6A-402A-BDA6-E7E91B18F6B2}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C7FAE2-5AB6-4ABC-B909-1C65A1826C5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -124,6 +124,57 @@
   </si>
   <si>
     <t>31.36</t>
+  </si>
+  <si>
+    <t>32.39</t>
+  </si>
+  <si>
+    <t>32.23</t>
+  </si>
+  <si>
+    <t>265.4</t>
+  </si>
+  <si>
+    <t>32.08</t>
+  </si>
+  <si>
+    <t>265.3</t>
+  </si>
+  <si>
+    <t>32.05</t>
+  </si>
+  <si>
+    <t>265.7</t>
+  </si>
+  <si>
+    <t>32.16</t>
+  </si>
+  <si>
+    <t>266.1</t>
+  </si>
+  <si>
+    <t>32.26</t>
+  </si>
+  <si>
+    <t>266.8</t>
+  </si>
+  <si>
+    <t>32.44</t>
+  </si>
+  <si>
+    <t>32.62</t>
+  </si>
+  <si>
+    <t>32.77</t>
+  </si>
+  <si>
+    <t>266.7</t>
+  </si>
+  <si>
+    <t>267.6</t>
+  </si>
+  <si>
+    <t>268.2</t>
   </si>
 </sst>
 </file>
@@ -457,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1651,212 @@
         <v>32</v>
       </c>
     </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45217.666805555556</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="D100">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45217.708472222221</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="D101">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45217.750138888892</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="D102">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45217.791805555556</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103">
+        <v>264.8</v>
+      </c>
+      <c r="D103">
+        <v>31.93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45217.833472222221</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104">
+        <v>264.3</v>
+      </c>
+      <c r="D104">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45217.875138888892</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105">
+        <v>264</v>
+      </c>
+      <c r="D105">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45217.916805555556</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106">
+        <v>265</v>
+      </c>
+      <c r="D106">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45217.958472222221</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107">
+        <v>266.5</v>
+      </c>
+      <c r="D107">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>45218.000138888892</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>45218.041805555556</v>
+      </c>
+      <c r="C109" s="2">
+        <v>267</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>45218.083472222221</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>45218.125138888892</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>45218.166805555556</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>45218.208472222221</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>45218.250138888892</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>45218.291805555556</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>45218.333472222221</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>45218.375138888892</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C7FAE2-5AB6-4ABC-B909-1C65A1826C5D}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4E2C7F2-261F-401B-90F8-0A3EC1A15DFA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,6 +1857,66 @@
         <v>46</v>
       </c>
     </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45218.416805555556</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118">
+        <v>268.7</v>
+      </c>
+      <c r="D118">
+        <v>32.93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45218.458472222221</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="D119">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45218.500138888892</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120">
+        <v>270</v>
+      </c>
+      <c r="D120">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45218.541805555556</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="D121">
+        <v>33.369999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45218.583472222221</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122">
+        <v>270.8</v>
+      </c>
+      <c r="D122">
+        <v>33.47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4E2C7F2-261F-401B-90F8-0A3EC1A15DFA}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C8F040-7EFD-48E0-A2B0-3D070CE90EEE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -175,6 +175,60 @@
   </si>
   <si>
     <t>268.2</t>
+  </si>
+  <si>
+    <t>271.8</t>
+  </si>
+  <si>
+    <t>33.73</t>
+  </si>
+  <si>
+    <t>272.3</t>
+  </si>
+  <si>
+    <t>33.86</t>
+  </si>
+  <si>
+    <t>272.9</t>
+  </si>
+  <si>
+    <t>34.02</t>
+  </si>
+  <si>
+    <t>273.3</t>
+  </si>
+  <si>
+    <t>34.12</t>
+  </si>
+  <si>
+    <t>271.4</t>
+  </si>
+  <si>
+    <t>33.63</t>
+  </si>
+  <si>
+    <t>33.52</t>
+  </si>
+  <si>
+    <t>270.6</t>
+  </si>
+  <si>
+    <t>33.42</t>
+  </si>
+  <si>
+    <t>270.3</t>
+  </si>
+  <si>
+    <t>33.34</t>
+  </si>
+  <si>
+    <t>33.26</t>
+  </si>
+  <si>
+    <t>269.7</t>
+  </si>
+  <si>
+    <t>33.19</t>
   </si>
 </sst>
 </file>
@@ -216,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,6 +280,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,16 +565,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -527,7 +584,7 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -541,7 +598,9 @@
       <c r="A2" s="3">
         <v>45200.958472222221</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
       <c r="C2" s="2">
         <v>308</v>
       </c>
@@ -553,7 +612,9 @@
       <c r="A3" s="3">
         <v>45200.916805555556</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
         <v>308.2</v>
       </c>
@@ -565,7 +626,9 @@
       <c r="A4" s="3">
         <v>45200.875138888892</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
       <c r="C4" s="2">
         <v>308.2</v>
       </c>
@@ -577,7 +640,9 @@
       <c r="A5" s="3">
         <v>45200.833472222221</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
       <c r="C5" s="2">
         <v>308.5</v>
       </c>
@@ -589,7 +654,9 @@
       <c r="A6" s="3">
         <v>45200.791805555556</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
       <c r="C6" s="2">
         <v>308.39999999999998</v>
       </c>
@@ -601,7 +668,9 @@
       <c r="A7" s="3">
         <v>45200.750138888892</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
       <c r="C7" s="2">
         <v>307.89999999999998</v>
       </c>
@@ -613,7 +682,9 @@
       <c r="A8" s="3">
         <v>45200.708472222221</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
       <c r="C8" s="2">
         <v>307.8</v>
       </c>
@@ -625,7 +696,9 @@
       <c r="A9" s="3">
         <v>45200.666805555556</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
       <c r="C9" s="2">
         <v>307.7</v>
       </c>
@@ -637,7 +710,9 @@
       <c r="A10" s="3">
         <v>45200.625138888892</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
       <c r="C10" s="2">
         <v>307.60000000000002</v>
       </c>
@@ -649,7 +724,9 @@
       <c r="A11" s="3">
         <v>45200.583472222221</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
       <c r="C11" s="2">
         <v>307.5</v>
       </c>
@@ -661,7 +738,9 @@
       <c r="A12" s="3">
         <v>45200.541805555556</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
       <c r="C12" s="2">
         <v>307.39999999999998</v>
       </c>
@@ -673,7 +752,9 @@
       <c r="A13" s="3">
         <v>45200.500138888892</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
       <c r="C13" s="2">
         <v>307.60000000000002</v>
       </c>
@@ -685,7 +766,9 @@
       <c r="A14" s="3">
         <v>45200.458472222221</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
       <c r="C14" s="2">
         <v>307.89999999999998</v>
       </c>
@@ -697,7 +780,9 @@
       <c r="A15" s="3">
         <v>45200.416805555556</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
       <c r="C15" s="2">
         <v>308</v>
       </c>
@@ -709,7 +794,9 @@
       <c r="A16" s="3">
         <v>45200.375138888892</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
       <c r="C16" s="2">
         <v>308</v>
       </c>
@@ -721,7 +808,9 @@
       <c r="A17" s="3">
         <v>45200.333472222221</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
       <c r="C17" s="2">
         <v>308.2</v>
       </c>
@@ -733,7 +822,9 @@
       <c r="A18" s="3">
         <v>45200.291805555556</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
       <c r="C18" s="2">
         <v>308.5</v>
       </c>
@@ -745,7 +836,9 @@
       <c r="A19" s="3">
         <v>45200.250138888892</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
       <c r="C19" s="2">
         <v>308.7</v>
       </c>
@@ -757,7 +850,9 @@
       <c r="A20" s="3">
         <v>45200.208472222221</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
       <c r="C20" s="2">
         <v>308.89999999999998</v>
       </c>
@@ -769,7 +864,9 @@
       <c r="A21" s="3">
         <v>45200.166805555556</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
       <c r="C21" s="2">
         <v>309</v>
       </c>
@@ -781,7 +878,9 @@
       <c r="A22" s="3">
         <v>45200.125138888892</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
       <c r="C22" s="2">
         <v>309.2</v>
       </c>
@@ -793,7 +892,9 @@
       <c r="A23" s="3">
         <v>45200.083472222221</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
       <c r="C23" s="2">
         <v>309.5</v>
       </c>
@@ -805,7 +906,9 @@
       <c r="A24" s="3">
         <v>45200.041805555556</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
       <c r="C24" s="2">
         <v>309.7</v>
       </c>
@@ -817,19 +920,28 @@
       <c r="A25" s="3">
         <v>45200.000138888892</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>309.89999999999998</v>
       </c>
       <c r="D25" s="2">
         <v>43.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45215.041805555556</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
       <c r="C27" s="2">
         <v>264.39999999999998</v>
       </c>
@@ -841,7 +953,9 @@
       <c r="A28" s="3">
         <v>45215.083472222221</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
       <c r="C28" s="2">
         <v>264.39999999999998</v>
       </c>
@@ -853,7 +967,9 @@
       <c r="A29" s="3">
         <v>45215.125138888892</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
       <c r="C29" s="2">
         <v>264.5</v>
       </c>
@@ -865,7 +981,9 @@
       <c r="A30" s="3">
         <v>45215.166805555556</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
       <c r="C30" s="2">
         <v>264.60000000000002</v>
       </c>
@@ -877,7 +995,9 @@
       <c r="A31" s="3">
         <v>45215.208472222221</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
       <c r="C31" s="2">
         <v>264.7</v>
       </c>
@@ -889,7 +1009,9 @@
       <c r="A32" s="3">
         <v>45215.250138888892</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
       <c r="C32" s="2">
         <v>264.7</v>
       </c>
@@ -901,7 +1023,9 @@
       <c r="A33" s="3">
         <v>45215.291805555556</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
       <c r="C33" s="2">
         <v>265</v>
       </c>
@@ -913,7 +1037,9 @@
       <c r="A34" s="3">
         <v>45215.333472222221</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
       <c r="C34" s="2">
         <v>266.39999999999998</v>
       </c>
@@ -925,7 +1051,9 @@
       <c r="A35" s="3">
         <v>45215.375138888892</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
       <c r="C35" s="2">
         <v>266.3</v>
       </c>
@@ -937,7 +1065,9 @@
       <c r="A36" s="3">
         <v>45215.416805555556</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
       <c r="C36" s="2">
         <v>266.5</v>
       </c>
@@ -949,7 +1079,9 @@
       <c r="A37" s="3">
         <v>45215.458472222221</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
       <c r="C37" s="2">
         <v>266.2</v>
       </c>
@@ -961,7 +1093,9 @@
       <c r="A38" s="3">
         <v>45215.500138888892</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
       <c r="C38" s="2">
         <v>265.3</v>
       </c>
@@ -973,7 +1107,9 @@
       <c r="A39" s="3">
         <v>45215.541805555556</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
       <c r="C39" s="2">
         <v>265</v>
       </c>
@@ -985,7 +1121,9 @@
       <c r="A40" s="3">
         <v>45215.583472222221</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
       <c r="C40" s="2">
         <v>265.2</v>
       </c>
@@ -997,7 +1135,9 @@
       <c r="A41" s="3">
         <v>45215.625138888892</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
       <c r="C41" s="2">
         <v>265.10000000000002</v>
       </c>
@@ -1009,7 +1149,9 @@
       <c r="A42" s="3">
         <v>45215.666805555556</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
       <c r="C42" s="2">
         <v>264.8</v>
       </c>
@@ -1021,7 +1163,9 @@
       <c r="A43" s="3">
         <v>45215.708472222221</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
       <c r="C43" s="2">
         <v>265.2</v>
       </c>
@@ -1033,7 +1177,9 @@
       <c r="A44" s="3">
         <v>45215.750138888892</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
       <c r="C44" s="2">
         <v>266</v>
       </c>
@@ -1045,7 +1191,9 @@
       <c r="A45" s="3">
         <v>45215.791805555556</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
       <c r="C45" s="2">
         <v>266</v>
       </c>
@@ -1057,7 +1205,9 @@
       <c r="A46" s="3">
         <v>45215.833472222221</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
       <c r="C46" s="2">
         <v>265.8</v>
       </c>
@@ -1069,7 +1219,9 @@
       <c r="A47" s="3">
         <v>45215.875138888892</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
       <c r="C47" s="2">
         <v>265.7</v>
       </c>
@@ -1081,7 +1233,9 @@
       <c r="A48" s="3">
         <v>45215.916805555556</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
       <c r="C48" s="2">
         <v>265.7</v>
       </c>
@@ -1093,7 +1247,9 @@
       <c r="A49" s="3">
         <v>45215.958472222221</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
       <c r="C49" s="2">
         <v>265.7</v>
       </c>
@@ -1105,6 +1261,9 @@
       <c r="A50" s="1">
         <v>45216.000138888892</v>
       </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
       <c r="C50" s="2">
         <v>265.7</v>
       </c>
@@ -1116,6 +1275,9 @@
       <c r="A51" s="1">
         <v>45216.041805555556</v>
       </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
       <c r="C51" s="2">
         <v>265.89999999999998</v>
       </c>
@@ -1127,6 +1289,9 @@
       <c r="A52" s="1">
         <v>45216.083472222221</v>
       </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
       <c r="C52" s="2">
         <v>266.2</v>
       </c>
@@ -1138,6 +1303,9 @@
       <c r="A53" s="1">
         <v>45216.125138888892</v>
       </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
       <c r="C53" s="2">
         <v>266.39999999999998</v>
       </c>
@@ -1149,6 +1317,9 @@
       <c r="A54" s="1">
         <v>45216.166805555556</v>
       </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
       <c r="C54" s="2">
         <v>266.2</v>
       </c>
@@ -1160,6 +1331,9 @@
       <c r="A55" s="1">
         <v>45216.208472222221</v>
       </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
       <c r="C55" s="2">
         <v>266.10000000000002</v>
       </c>
@@ -1171,6 +1345,9 @@
       <c r="A56" s="1">
         <v>45216.250138888892</v>
       </c>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
       <c r="C56" s="2">
         <v>266.10000000000002</v>
       </c>
@@ -1182,6 +1359,9 @@
       <c r="A57" s="1">
         <v>45216.291805555556</v>
       </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
       <c r="C57" s="2">
         <v>266.2</v>
       </c>
@@ -1193,6 +1373,9 @@
       <c r="A58" s="1">
         <v>45216.333472222221</v>
       </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
       <c r="C58" s="2">
         <v>266.39999999999998</v>
       </c>
@@ -1204,6 +1387,9 @@
       <c r="A59" s="1">
         <v>45216.375138888892</v>
       </c>
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
       <c r="C59" s="2">
         <v>266.5</v>
       </c>
@@ -1215,6 +1401,9 @@
       <c r="A60" s="1">
         <v>45216.416805555556</v>
       </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
       <c r="C60" s="2">
         <v>266.39999999999998</v>
       </c>
@@ -1226,6 +1415,9 @@
       <c r="A61" s="1">
         <v>45216.458472222221</v>
       </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
       <c r="C61" s="2">
         <v>266.10000000000002</v>
       </c>
@@ -1237,6 +1429,9 @@
       <c r="A62" s="1">
         <v>45216.500138888892</v>
       </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
       <c r="C62" s="2">
         <v>265.8</v>
       </c>
@@ -1248,6 +1443,9 @@
       <c r="A63" s="1">
         <v>45216.541805555556</v>
       </c>
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
       <c r="C63" s="2">
         <v>265.5</v>
       </c>
@@ -1259,6 +1457,9 @@
       <c r="A64" s="1">
         <v>45216.583472222221</v>
       </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
       <c r="C64" s="2">
         <v>265.5</v>
       </c>
@@ -1270,6 +1471,9 @@
       <c r="A65" s="1">
         <v>45216.625138888892</v>
       </c>
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
       <c r="C65" s="2">
         <v>265.60000000000002</v>
       </c>
@@ -1281,6 +1485,9 @@
       <c r="A66" s="1">
         <v>45216.666805555556</v>
       </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
       <c r="C66" s="2">
         <v>265.5</v>
       </c>
@@ -1292,6 +1499,9 @@
       <c r="A67" s="1">
         <v>45216.708472222221</v>
       </c>
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
       <c r="C67" s="2">
         <v>265.3</v>
       </c>
@@ -1303,6 +1513,9 @@
       <c r="A68" s="1">
         <v>45216.750138888892</v>
       </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
       <c r="C68" s="2">
         <v>265.39999999999998</v>
       </c>
@@ -1314,6 +1527,9 @@
       <c r="A69" s="1">
         <v>45216.791805555556</v>
       </c>
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
       <c r="C69" s="2">
         <v>265.60000000000002</v>
       </c>
@@ -1325,6 +1541,9 @@
       <c r="A70" s="1">
         <v>45216.833472222221</v>
       </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
       <c r="C70" s="2">
         <v>265.8</v>
       </c>
@@ -1336,6 +1555,9 @@
       <c r="A71" s="1">
         <v>45216.875138888892</v>
       </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
       <c r="C71" s="2">
         <v>267</v>
       </c>
@@ -1347,6 +1569,9 @@
       <c r="A72" s="1">
         <v>45216.916805555556</v>
       </c>
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
       <c r="C72" s="2">
         <v>266.2</v>
       </c>
@@ -1358,6 +1583,9 @@
       <c r="A73" s="1">
         <v>45216.958472222221</v>
       </c>
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
       <c r="C73" s="2">
         <v>266.3</v>
       </c>
@@ -1369,6 +1597,9 @@
       <c r="A74" s="1">
         <v>45217.000138888892</v>
       </c>
+      <c r="B74" s="5">
+        <v>0</v>
+      </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
@@ -1380,6 +1611,9 @@
       <c r="A75" s="1">
         <v>45217.041805555556</v>
       </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
@@ -1391,6 +1625,9 @@
       <c r="A76" s="1">
         <v>45217.083472222221</v>
       </c>
+      <c r="B76" s="5">
+        <v>0</v>
+      </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
@@ -1402,6 +1639,9 @@
       <c r="A77" s="1">
         <v>45217.125138888892</v>
       </c>
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1413,6 +1653,9 @@
       <c r="A78" s="1">
         <v>45217.166805555556</v>
       </c>
+      <c r="B78" s="5">
+        <v>0</v>
+      </c>
       <c r="C78" s="2" t="s">
         <v>7</v>
       </c>
@@ -1424,6 +1667,9 @@
       <c r="A79" s="1">
         <v>45217.208472222221</v>
       </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
@@ -1435,6 +1681,9 @@
       <c r="A80" s="1">
         <v>45217.250138888892</v>
       </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
@@ -1446,6 +1695,9 @@
       <c r="A81" s="1">
         <v>45217.291805555556</v>
       </c>
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
       <c r="C81" s="2">
         <v>265</v>
       </c>
@@ -1457,6 +1709,9 @@
       <c r="A82" s="1">
         <v>45217.333472222221</v>
       </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
@@ -1468,6 +1723,9 @@
       <c r="A83" s="1">
         <v>45217.375138888892</v>
       </c>
+      <c r="B83" s="5">
+        <v>0</v>
+      </c>
       <c r="C83" s="2" t="s">
         <v>21</v>
       </c>
@@ -1479,6 +1737,9 @@
       <c r="A84" s="1">
         <v>45217.000138888892</v>
       </c>
+      <c r="B84" s="5">
+        <v>0</v>
+      </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
@@ -1490,6 +1751,9 @@
       <c r="A85" s="1">
         <v>45217.041805555556</v>
       </c>
+      <c r="B85" s="5">
+        <v>0</v>
+      </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
@@ -1501,6 +1765,9 @@
       <c r="A86" s="1">
         <v>45217.083472222221</v>
       </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
@@ -1512,6 +1779,9 @@
       <c r="A87" s="1">
         <v>45217.125138888892</v>
       </c>
+      <c r="B87" s="5">
+        <v>0</v>
+      </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
@@ -1523,6 +1793,9 @@
       <c r="A88" s="1">
         <v>45217.166805555556</v>
       </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
       <c r="C88" s="2" t="s">
         <v>7</v>
       </c>
@@ -1534,6 +1807,9 @@
       <c r="A89" s="1">
         <v>45217.208472222221</v>
       </c>
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
       </c>
@@ -1545,6 +1821,9 @@
       <c r="A90" s="1">
         <v>45217.250138888892</v>
       </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
@@ -1556,6 +1835,9 @@
       <c r="A91" s="1">
         <v>45217.291805555556</v>
       </c>
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
       <c r="C91" s="2">
         <v>265</v>
       </c>
@@ -1567,6 +1849,9 @@
       <c r="A92" s="1">
         <v>45217.333472222221</v>
       </c>
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
@@ -1578,6 +1863,9 @@
       <c r="A93" s="1">
         <v>45217.375138888892</v>
       </c>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
       <c r="C93" s="2" t="s">
         <v>21</v>
       </c>
@@ -1589,6 +1877,9 @@
       <c r="A94" s="1">
         <v>45217.416805555556</v>
       </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
       <c r="C94" s="2" t="s">
         <v>23</v>
       </c>
@@ -1600,6 +1891,9 @@
       <c r="A95" s="1">
         <v>45217.458472222221</v>
       </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
@@ -1611,6 +1905,9 @@
       <c r="A96" s="1">
         <v>45217.500138888892</v>
       </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
@@ -1622,6 +1919,9 @@
       <c r="A97" s="1">
         <v>45217.541805555556</v>
       </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
       <c r="C97" s="2" t="s">
         <v>29</v>
       </c>
@@ -1633,6 +1933,9 @@
       <c r="A98" s="1">
         <v>45217.583472222221</v>
       </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
       <c r="C98" s="2" t="s">
         <v>29</v>
       </c>
@@ -1644,6 +1947,9 @@
       <c r="A99" s="1">
         <v>45217.625138888892</v>
       </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
       </c>
@@ -1655,7 +1961,9 @@
       <c r="A100" s="1">
         <v>45217.666805555556</v>
       </c>
-      <c r="B100"/>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
       <c r="C100">
         <v>262.89999999999998</v>
       </c>
@@ -1667,7 +1975,9 @@
       <c r="A101" s="1">
         <v>45217.708472222221</v>
       </c>
-      <c r="B101"/>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
       <c r="C101">
         <v>263.39999999999998</v>
       </c>
@@ -1679,7 +1989,9 @@
       <c r="A102" s="1">
         <v>45217.750138888892</v>
       </c>
-      <c r="B102"/>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
       <c r="C102">
         <v>264.39999999999998</v>
       </c>
@@ -1691,7 +2003,9 @@
       <c r="A103" s="1">
         <v>45217.791805555556</v>
       </c>
-      <c r="B103"/>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
       <c r="C103">
         <v>264.8</v>
       </c>
@@ -1703,7 +2017,9 @@
       <c r="A104" s="1">
         <v>45217.833472222221</v>
       </c>
-      <c r="B104"/>
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
       <c r="C104">
         <v>264.3</v>
       </c>
@@ -1715,7 +2031,9 @@
       <c r="A105" s="1">
         <v>45217.875138888892</v>
       </c>
-      <c r="B105"/>
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
       <c r="C105">
         <v>264</v>
       </c>
@@ -1727,7 +2045,9 @@
       <c r="A106" s="1">
         <v>45217.916805555556</v>
       </c>
-      <c r="B106"/>
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
       <c r="C106">
         <v>265</v>
       </c>
@@ -1739,7 +2059,9 @@
       <c r="A107" s="1">
         <v>45217.958472222221</v>
       </c>
-      <c r="B107"/>
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
       <c r="C107">
         <v>266.5</v>
       </c>
@@ -1751,6 +2073,9 @@
       <c r="A108" s="3">
         <v>45218.000138888892</v>
       </c>
+      <c r="B108" s="5">
+        <v>0</v>
+      </c>
       <c r="C108" s="2" t="s">
         <v>47</v>
       </c>
@@ -1762,6 +2087,9 @@
       <c r="A109" s="3">
         <v>45218.041805555556</v>
       </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
       <c r="C109" s="2">
         <v>267</v>
       </c>
@@ -1773,6 +2101,9 @@
       <c r="A110" s="3">
         <v>45218.083472222221</v>
       </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
       <c r="C110" s="2" t="s">
         <v>35</v>
       </c>
@@ -1784,6 +2115,9 @@
       <c r="A111" s="3">
         <v>45218.125138888892</v>
       </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
       <c r="C111" s="2" t="s">
         <v>37</v>
       </c>
@@ -1795,6 +2129,9 @@
       <c r="A112" s="3">
         <v>45218.166805555556</v>
       </c>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
       <c r="C112" s="2" t="s">
         <v>35</v>
       </c>
@@ -1802,10 +2139,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>45218.208472222221</v>
       </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
       <c r="C113" s="2" t="s">
         <v>39</v>
       </c>
@@ -1813,10 +2153,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>45218.250138888892</v>
       </c>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
       <c r="C114" s="2" t="s">
         <v>41</v>
       </c>
@@ -1824,10 +2167,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>45218.291805555556</v>
       </c>
+      <c r="B115" s="5">
+        <v>0</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>43</v>
       </c>
@@ -1835,10 +2181,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>45218.333472222221</v>
       </c>
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
       <c r="C116" s="2" t="s">
         <v>48</v>
       </c>
@@ -1846,10 +2195,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>45218.375138888892</v>
       </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
       <c r="C117" s="2" t="s">
         <v>49</v>
       </c>
@@ -1857,11 +2209,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45218.416805555556</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
       <c r="C118">
         <v>268.7</v>
       </c>
@@ -1869,11 +2223,13 @@
         <v>32.93</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45218.458472222221</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
       <c r="C119">
         <v>269.39999999999998</v>
       </c>
@@ -1881,11 +2237,13 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45218.500138888892</v>
       </c>
-      <c r="B120" s="1"/>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
       <c r="C120">
         <v>270</v>
       </c>
@@ -1893,11 +2251,13 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45218.541805555556</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
       <c r="C121">
         <v>270.39999999999998</v>
       </c>
@@ -1905,17 +2265,304 @@
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45218.583472222221</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="5">
+        <v>0</v>
+      </c>
       <c r="C122">
         <v>270.8</v>
       </c>
       <c r="D122">
         <v>33.47</v>
       </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45218.625138888892</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2">
+        <v>271.2</v>
+      </c>
+      <c r="D123" s="2">
+        <v>33.58</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45218.666805555556</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2">
+        <v>271.8</v>
+      </c>
+      <c r="D124" s="2">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45218.708472222221</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>272.3</v>
+      </c>
+      <c r="D125" s="2">
+        <v>33.86</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45218.750138888892</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2">
+        <v>272.7</v>
+      </c>
+      <c r="D126" s="2">
+        <v>33.96</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45218.791805555556</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="D127" s="2">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45218.833472222221</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2">
+        <v>273.2</v>
+      </c>
+      <c r="D128" s="2">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45218.875138888892</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="D129" s="2">
+        <v>34.15</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45218.916805555556</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C130" s="2">
+        <v>273.5</v>
+      </c>
+      <c r="D130" s="2">
+        <v>34.17</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45218.958472222221</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="D131" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45219.000138888892</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45219.041805555556</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45219.083472222221</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45219.125138888892</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45219.166805555556</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45219.208472222221</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2">
+        <v>271</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45219.250138888892</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45219.291805555556</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45219.333472222221</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2">
+        <v>270</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45219.375138888892</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E141" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C8F040-7EFD-48E0-A2B0-3D070CE90EEE}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{262B1947-7707-4573-8470-0D03952B71F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,6 +2564,118 @@
       </c>
       <c r="E141" s="2"/>
     </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45219.416805555556</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>269.60000000000002</v>
+      </c>
+      <c r="D142">
+        <v>33.159999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45219.458472222221</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="D143">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45219.500138888892</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>269.2</v>
+      </c>
+      <c r="D144">
+        <v>33.06</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45219.541805555556</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="D145">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45219.583472222221</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="D146">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45219.625138888892</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>268.8</v>
+      </c>
+      <c r="D147">
+        <v>32.950000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45219.666805555556</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="D148">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45219.708472222221</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>268.8</v>
+      </c>
+      <c r="D149">
+        <v>32.950000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{262B1947-7707-4573-8470-0D03952B71F8}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D454F4-A49D-41F0-AF91-F3D857DF6AB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,6 +2676,300 @@
         <v>32.950000000000003</v>
       </c>
     </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45219.750138888892</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>268.5</v>
+      </c>
+      <c r="D150">
+        <v>32.880000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45219.791805555556</v>
+      </c>
+      <c r="B151" s="5">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="D151">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45219.833472222221</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>268.3</v>
+      </c>
+      <c r="D152">
+        <v>32.83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45219.875138888892</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="D153">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45219.916805555556</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>268.2</v>
+      </c>
+      <c r="D154">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45219.958472222221</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>267.7</v>
+      </c>
+      <c r="D155">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45220.000138888892</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>267.3</v>
+      </c>
+      <c r="D156">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45220.041805555556</v>
+      </c>
+      <c r="B157" s="5">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>267.2</v>
+      </c>
+      <c r="D157">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45220.083472222221</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="D158">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45220.125138888892</v>
+      </c>
+      <c r="B159" s="5">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="D159">
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45220.166805555556</v>
+      </c>
+      <c r="B160" s="5">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="D160">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45220.208472222221</v>
+      </c>
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="D161">
+        <v>32.130000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45220.250138888892</v>
+      </c>
+      <c r="B162" s="5">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="D162">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45220.291805555556</v>
+      </c>
+      <c r="B163" s="5">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>264.7</v>
+      </c>
+      <c r="D163">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45220.333472222221</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>264.2</v>
+      </c>
+      <c r="D164">
+        <v>31.77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45220.375138888892</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="D165">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45220.416805555556</v>
+      </c>
+      <c r="B166" s="5">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>263.5</v>
+      </c>
+      <c r="D166">
+        <v>31.59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45220.458472222221</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="D167">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45220.500138888892</v>
+      </c>
+      <c r="B168" s="5">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>262.7</v>
+      </c>
+      <c r="D168">
+        <v>31.39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45220.541805555556</v>
+      </c>
+      <c r="B169" s="5">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>262.3</v>
+      </c>
+      <c r="D169">
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45220.583472222221</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="D170">
+        <v>31.19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D454F4-A49D-41F0-AF91-F3D857DF6AB9}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{E98A8EEA-5417-486A-8DE3-8A4DA330047D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,198 +37,6 @@
   </si>
   <si>
     <t xml:space="preserve">Data-Hora </t>
-  </si>
-  <si>
-    <t>31.72</t>
-  </si>
-  <si>
-    <t>264.5</t>
-  </si>
-  <si>
-    <t>31.85</t>
-  </si>
-  <si>
-    <t>264.7</t>
-  </si>
-  <si>
-    <t>31.90</t>
-  </si>
-  <si>
-    <t>266.3</t>
-  </si>
-  <si>
-    <t>32.29</t>
-  </si>
-  <si>
-    <t>265.1</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>265.9</t>
-  </si>
-  <si>
-    <t>32.21</t>
-  </si>
-  <si>
-    <t>265.5</t>
-  </si>
-  <si>
-    <t>32.11</t>
-  </si>
-  <si>
-    <t>264.2</t>
-  </si>
-  <si>
-    <t>31.77</t>
-  </si>
-  <si>
-    <t>263.6</t>
-  </si>
-  <si>
-    <t>31.62</t>
-  </si>
-  <si>
-    <t>263.4</t>
-  </si>
-  <si>
-    <t>31.57</t>
-  </si>
-  <si>
-    <t>263.3</t>
-  </si>
-  <si>
-    <t>31.54</t>
-  </si>
-  <si>
-    <t>263.1</t>
-  </si>
-  <si>
-    <t>31.49</t>
-  </si>
-  <si>
-    <t>262.7</t>
-  </si>
-  <si>
-    <t>31.39</t>
-  </si>
-  <si>
-    <t>262.4</t>
-  </si>
-  <si>
-    <t>31.31</t>
-  </si>
-  <si>
-    <t>262.6</t>
-  </si>
-  <si>
-    <t>31.36</t>
-  </si>
-  <si>
-    <t>32.39</t>
-  </si>
-  <si>
-    <t>32.23</t>
-  </si>
-  <si>
-    <t>265.4</t>
-  </si>
-  <si>
-    <t>32.08</t>
-  </si>
-  <si>
-    <t>265.3</t>
-  </si>
-  <si>
-    <t>32.05</t>
-  </si>
-  <si>
-    <t>265.7</t>
-  </si>
-  <si>
-    <t>32.16</t>
-  </si>
-  <si>
-    <t>266.1</t>
-  </si>
-  <si>
-    <t>32.26</t>
-  </si>
-  <si>
-    <t>266.8</t>
-  </si>
-  <si>
-    <t>32.44</t>
-  </si>
-  <si>
-    <t>32.62</t>
-  </si>
-  <si>
-    <t>32.77</t>
-  </si>
-  <si>
-    <t>266.7</t>
-  </si>
-  <si>
-    <t>267.6</t>
-  </si>
-  <si>
-    <t>268.2</t>
-  </si>
-  <si>
-    <t>271.8</t>
-  </si>
-  <si>
-    <t>33.73</t>
-  </si>
-  <si>
-    <t>272.3</t>
-  </si>
-  <si>
-    <t>33.86</t>
-  </si>
-  <si>
-    <t>272.9</t>
-  </si>
-  <si>
-    <t>34.02</t>
-  </si>
-  <si>
-    <t>273.3</t>
-  </si>
-  <si>
-    <t>34.12</t>
-  </si>
-  <si>
-    <t>271.4</t>
-  </si>
-  <si>
-    <t>33.63</t>
-  </si>
-  <si>
-    <t>33.52</t>
-  </si>
-  <si>
-    <t>270.6</t>
-  </si>
-  <si>
-    <t>33.42</t>
-  </si>
-  <si>
-    <t>270.3</t>
-  </si>
-  <si>
-    <t>33.34</t>
-  </si>
-  <si>
-    <t>33.26</t>
-  </si>
-  <si>
-    <t>269.7</t>
-  </si>
-  <si>
-    <t>33.19</t>
   </si>
 </sst>
 </file>
@@ -565,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,11 +1408,11 @@
       <c r="B74" s="5">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>10</v>
+      <c r="C74" s="2">
+        <v>266.3</v>
+      </c>
+      <c r="D74" s="2">
+        <v>32.29</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,11 +1422,11 @@
       <c r="B75" s="5">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>14</v>
+      <c r="C75" s="2">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="D75" s="2">
+        <v>32.21</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,11 +1436,11 @@
       <c r="B76" s="5">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>16</v>
+      <c r="C76" s="2">
+        <v>265.5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>32.11</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,11 +1450,11 @@
       <c r="B77" s="5">
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>12</v>
+      <c r="C77" s="2">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="D77" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,11 +1464,11 @@
       <c r="B78" s="5">
         <v>0</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>8</v>
+      <c r="C78" s="2">
+        <v>264.7</v>
+      </c>
+      <c r="D78" s="2">
+        <v>31.9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,11 +1478,11 @@
       <c r="B79" s="5">
         <v>0</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>6</v>
+      <c r="C79" s="2">
+        <v>264.5</v>
+      </c>
+      <c r="D79" s="2">
+        <v>31.85</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,11 +1492,11 @@
       <c r="B80" s="5">
         <v>0</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>18</v>
+      <c r="C80" s="2">
+        <v>264.2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>31.77</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,8 +1509,8 @@
       <c r="C81" s="2">
         <v>265</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>4</v>
+      <c r="D81" s="2">
+        <v>31.72</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,11 +1520,11 @@
       <c r="B82" s="5">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>20</v>
+      <c r="C82" s="2">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="D82" s="2">
+        <v>31.62</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,11 +1534,11 @@
       <c r="B83" s="5">
         <v>0</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>22</v>
+      <c r="C83" s="2">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="D83" s="2">
+        <v>31.57</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,11 +1548,11 @@
       <c r="B84" s="5">
         <v>0</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>10</v>
+      <c r="C84" s="2">
+        <v>266.3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>32.29</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,11 +1562,11 @@
       <c r="B85" s="5">
         <v>0</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>14</v>
+      <c r="C85" s="2">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="D85" s="2">
+        <v>32.21</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,11 +1576,11 @@
       <c r="B86" s="5">
         <v>0</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>16</v>
+      <c r="C86" s="2">
+        <v>265.5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>32.11</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,11 +1590,11 @@
       <c r="B87" s="5">
         <v>0</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>12</v>
+      <c r="C87" s="2">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="D87" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,11 +1604,11 @@
       <c r="B88" s="5">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>8</v>
+      <c r="C88" s="2">
+        <v>264.7</v>
+      </c>
+      <c r="D88" s="2">
+        <v>31.9</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,11 +1618,11 @@
       <c r="B89" s="5">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>6</v>
+      <c r="C89" s="2">
+        <v>264.5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>31.85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,11 +1632,11 @@
       <c r="B90" s="5">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>18</v>
+      <c r="C90" s="2">
+        <v>264.2</v>
+      </c>
+      <c r="D90" s="2">
+        <v>31.77</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,8 +1649,8 @@
       <c r="C91" s="2">
         <v>265</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>4</v>
+      <c r="D91" s="2">
+        <v>31.72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,11 +1660,11 @@
       <c r="B92" s="5">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>20</v>
+      <c r="C92" s="2">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="D92" s="2">
+        <v>31.62</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,11 +1674,11 @@
       <c r="B93" s="5">
         <v>0</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>22</v>
+      <c r="C93" s="2">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="D93" s="2">
+        <v>31.57</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,11 +1688,11 @@
       <c r="B94" s="5">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>24</v>
+      <c r="C94" s="2">
+        <v>263.3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>31.54</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,11 +1702,11 @@
       <c r="B95" s="5">
         <v>0</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>26</v>
+      <c r="C95" s="2">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="D95" s="2">
+        <v>31.49</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,11 +1716,11 @@
       <c r="B96" s="5">
         <v>0</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>28</v>
+      <c r="C96" s="2">
+        <v>262.7</v>
+      </c>
+      <c r="D96" s="2">
+        <v>31.39</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,11 +1730,11 @@
       <c r="B97" s="5">
         <v>0</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>30</v>
+      <c r="C97" s="2">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="D97" s="2">
+        <v>31.31</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,11 +1744,11 @@
       <c r="B98" s="5">
         <v>0</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>30</v>
+      <c r="C98" s="2">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="D98" s="2">
+        <v>31.31</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,11 +1758,11 @@
       <c r="B99" s="5">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>32</v>
+      <c r="C99" s="2">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="D99" s="2">
+        <v>31.36</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,11 +1884,11 @@
       <c r="B108" s="5">
         <v>0</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>33</v>
+      <c r="C108" s="2">
+        <v>266.7</v>
+      </c>
+      <c r="D108" s="2">
+        <v>32.39</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,8 +1901,8 @@
       <c r="C109" s="2">
         <v>267</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>34</v>
+      <c r="D109" s="2">
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,11 +1912,11 @@
       <c r="B110" s="5">
         <v>0</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>36</v>
+      <c r="C110" s="2">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="D110" s="2">
+        <v>32.08</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,11 +1926,11 @@
       <c r="B111" s="5">
         <v>0</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>38</v>
+      <c r="C111" s="2">
+        <v>265.3</v>
+      </c>
+      <c r="D111" s="2">
+        <v>32.049999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,11 +1940,11 @@
       <c r="B112" s="5">
         <v>0</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>36</v>
+      <c r="C112" s="2">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="D112" s="2">
+        <v>32.08</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,11 +1954,11 @@
       <c r="B113" s="5">
         <v>0</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>40</v>
+      <c r="C113" s="2">
+        <v>265.7</v>
+      </c>
+      <c r="D113" s="2">
+        <v>32.159999999999997</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2160,11 +1968,11 @@
       <c r="B114" s="5">
         <v>0</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>42</v>
+      <c r="C114" s="2">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="D114" s="2">
+        <v>32.26</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,11 +1982,11 @@
       <c r="B115" s="5">
         <v>0</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>44</v>
+      <c r="C115" s="2">
+        <v>266.8</v>
+      </c>
+      <c r="D115" s="2">
+        <v>32.44</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,11 +1996,11 @@
       <c r="B116" s="5">
         <v>0</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>45</v>
+      <c r="C116" s="2">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="D116" s="2">
+        <v>32.619999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2202,11 +2010,11 @@
       <c r="B117" s="5">
         <v>0</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>46</v>
+      <c r="C117" s="2">
+        <v>268.2</v>
+      </c>
+      <c r="D117" s="2">
+        <v>32.770000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2421,11 +2229,11 @@
       <c r="B132" s="4">
         <v>0</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>57</v>
+      <c r="C132" s="2">
+        <v>273.3</v>
+      </c>
+      <c r="D132" s="2">
+        <v>34.119999999999997</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -2436,11 +2244,11 @@
       <c r="B133" s="5">
         <v>0</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>55</v>
+      <c r="C133" s="2">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="D133" s="2">
+        <v>34.020000000000003</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -2451,11 +2259,11 @@
       <c r="B134" s="4">
         <v>0</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>53</v>
+      <c r="C134" s="2">
+        <v>272.3</v>
+      </c>
+      <c r="D134" s="2">
+        <v>33.86</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -2466,11 +2274,11 @@
       <c r="B135" s="5">
         <v>0</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>51</v>
+      <c r="C135" s="2">
+        <v>271.8</v>
+      </c>
+      <c r="D135" s="2">
+        <v>33.729999999999997</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -2481,11 +2289,11 @@
       <c r="B136" s="4">
         <v>0</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>59</v>
+      <c r="C136" s="2">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="D136" s="2">
+        <v>33.630000000000003</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -2499,8 +2307,8 @@
       <c r="C137" s="2">
         <v>271</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>60</v>
+      <c r="D137" s="2">
+        <v>33.520000000000003</v>
       </c>
       <c r="E137" s="2"/>
     </row>
@@ -2511,11 +2319,11 @@
       <c r="B138" s="4">
         <v>0</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>62</v>
+      <c r="C138" s="2">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="D138" s="2">
+        <v>33.42</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -2526,11 +2334,11 @@
       <c r="B139" s="5">
         <v>0</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>64</v>
+      <c r="C139" s="2">
+        <v>270.3</v>
+      </c>
+      <c r="D139" s="2">
+        <v>33.340000000000003</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -2544,8 +2352,8 @@
       <c r="C140" s="2">
         <v>270</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>65</v>
+      <c r="D140" s="2">
+        <v>33.26</v>
       </c>
       <c r="E140" s="2"/>
     </row>
@@ -2556,11 +2364,11 @@
       <c r="B141" s="5">
         <v>0</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>67</v>
+      <c r="C141" s="2">
+        <v>269.7</v>
+      </c>
+      <c r="D141" s="2">
+        <v>33.19</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -2969,6 +2777,387 @@
       <c r="D170">
         <v>31.19</v>
       </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45220.625138888892</v>
+      </c>
+      <c r="B171" s="5">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>261.5</v>
+      </c>
+      <c r="D171">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45220.666805555556</v>
+      </c>
+      <c r="B172" s="5">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>261.3</v>
+      </c>
+      <c r="D172">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45220.708472222221</v>
+      </c>
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="D173">
+        <v>31.06</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45220.750138888892</v>
+      </c>
+      <c r="B174" s="5">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>261.2</v>
+      </c>
+      <c r="D174">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45220.791805555556</v>
+      </c>
+      <c r="B175" s="5">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>261</v>
+      </c>
+      <c r="D175">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45220.833472222221</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>260.7</v>
+      </c>
+      <c r="D176">
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45220.875138888892</v>
+      </c>
+      <c r="B177" s="5">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>260.5</v>
+      </c>
+      <c r="D177">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45220.916805555556</v>
+      </c>
+      <c r="B178" s="5">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>260.3</v>
+      </c>
+      <c r="D178">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45220.958472222221</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>260</v>
+      </c>
+      <c r="D179">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45221.000138888892</v>
+      </c>
+      <c r="B180" s="5">
+        <v>0</v>
+      </c>
+      <c r="C180" s="2">
+        <v>259.7</v>
+      </c>
+      <c r="D180" s="2">
+        <v>30.63</v>
+      </c>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45221.041805555556</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
+      <c r="C181" s="2">
+        <v>259.3</v>
+      </c>
+      <c r="D181" s="2">
+        <v>30.53</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45221.083472222221</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0</v>
+      </c>
+      <c r="C182" s="2">
+        <v>258.89999999999998</v>
+      </c>
+      <c r="D182" s="2">
+        <v>30.42</v>
+      </c>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45221.125138888892</v>
+      </c>
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+      <c r="C183" s="2">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="D183" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45221.166805555556</v>
+      </c>
+      <c r="B184" s="5">
+        <v>0</v>
+      </c>
+      <c r="C184" s="2">
+        <v>258</v>
+      </c>
+      <c r="D184" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45221.208472222221</v>
+      </c>
+      <c r="B185" s="4">
+        <v>0</v>
+      </c>
+      <c r="C185" s="2">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="D185" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45221.250138888892</v>
+      </c>
+      <c r="B186" s="5">
+        <v>0</v>
+      </c>
+      <c r="C186" s="2">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="D186" s="2">
+        <v>30.05</v>
+      </c>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45221.291805555556</v>
+      </c>
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
+      <c r="C187" s="2">
+        <v>257.2</v>
+      </c>
+      <c r="D187" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45221.333472222221</v>
+      </c>
+      <c r="B188" s="5">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="D188" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45221.375138888892</v>
+      </c>
+      <c r="B189" s="4">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2">
+        <v>256.8</v>
+      </c>
+      <c r="D189" s="2">
+        <v>29.89</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45221.416805555556</v>
+      </c>
+      <c r="B190" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="C190" s="2">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="D190" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45221.458472222221</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C191" s="2">
+        <v>259.8</v>
+      </c>
+      <c r="D191" s="2">
+        <v>30.65</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45221.500138888892</v>
+      </c>
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2">
+        <v>259</v>
+      </c>
+      <c r="D192" s="2">
+        <v>30.45</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45221.541805555556</v>
+      </c>
+      <c r="B193" s="4">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2">
+        <v>258.8</v>
+      </c>
+      <c r="D193" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45221.583472222221</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+      <c r="C194" s="2">
+        <v>258.60000000000002</v>
+      </c>
+      <c r="D194" s="2">
+        <v>30.35</v>
+      </c>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45221.625138888892</v>
+      </c>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+      <c r="C195" s="2">
+        <v>258.3</v>
+      </c>
+      <c r="D195" s="2">
+        <v>30.27</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45221.666805555556</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="C196" s="2">
+        <v>259</v>
+      </c>
+      <c r="D196" s="2">
+        <v>30.45</v>
+      </c>
+      <c r="E196" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{E98A8EEA-5417-486A-8DE3-8A4DA330047D}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16088E0-D04D-40EF-ACF3-59F5DE2A54E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,6 +3159,230 @@
       </c>
       <c r="E196" s="2"/>
     </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45221.708472222221</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>260.2</v>
+      </c>
+      <c r="D197">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45221.750138888892</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="D198">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45221.791805555556</v>
+      </c>
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="D199">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45221.833472222221</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="D200">
+        <v>30.68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45221.875138888892</v>
+      </c>
+      <c r="B201" s="4">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="D201">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45221.916805555556</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>260.2</v>
+      </c>
+      <c r="D202">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45221.958472222221</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>260.3</v>
+      </c>
+      <c r="D203">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45222.000138888892</v>
+      </c>
+      <c r="B204" s="4">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="D204">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45222.041805555556</v>
+      </c>
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>260.60000000000002</v>
+      </c>
+      <c r="D205">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45222.083472222221</v>
+      </c>
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>261</v>
+      </c>
+      <c r="D206">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45222.125138888892</v>
+      </c>
+      <c r="B207" s="4">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>261.5</v>
+      </c>
+      <c r="D207">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45222.166805555556</v>
+      </c>
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="D208">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45222.208472222221</v>
+      </c>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="D209">
+        <v>31.36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45222.250138888892</v>
+      </c>
+      <c r="B210" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="C210">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="D210">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45222.291805555556</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="D211">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45222.333472222221</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>265</v>
+      </c>
+      <c r="D212">
+        <v>31.98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16088E0-D04D-40EF-ACF3-59F5DE2A54E9}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B2E2AF-87BB-46FC-9367-1864F5F8DFE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,6 +3383,132 @@
         <v>31.98</v>
       </c>
     </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45222.375138888892</v>
+      </c>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>265.3</v>
+      </c>
+      <c r="D213">
+        <v>32.049999999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45222.416805555556</v>
+      </c>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="D214">
+        <v>32.130000000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45222.458472222221</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="D215">
+        <v>32.21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45222.500138888892</v>
+      </c>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="D216">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45222.541805555556</v>
+      </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>267.3</v>
+      </c>
+      <c r="D217">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45222.583472222221</v>
+      </c>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="D218">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45222.625138888892</v>
+      </c>
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="D219">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45222.666805555556</v>
+      </c>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="D220">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45222.708472222221</v>
+      </c>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>269.89999999999998</v>
+      </c>
+      <c r="D221">
+        <v>33.24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B2E2AF-87BB-46FC-9367-1864F5F8DFE5}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{87AD9096-815B-40EF-B657-54B894404CFD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3509,234 @@
         <v>33.24</v>
       </c>
     </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45222.750138888892</v>
+      </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>270.3</v>
+      </c>
+      <c r="D222">
+        <v>33.340000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45222.791805555556</v>
+      </c>
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="D223">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45222.833472222221</v>
+      </c>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>270.8</v>
+      </c>
+      <c r="D224">
+        <v>33.47</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45222.875138888892</v>
+      </c>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>271</v>
+      </c>
+      <c r="D225">
+        <v>33.520000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45222.916805555556</v>
+      </c>
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>271.3</v>
+      </c>
+      <c r="D226">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45222.958472222221</v>
+      </c>
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="D227">
+        <v>33.68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45223.000138888892</v>
+      </c>
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>271.8</v>
+      </c>
+      <c r="D228">
+        <v>33.729999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45223.041805555556</v>
+      </c>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="D229">
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45223.083472222221</v>
+      </c>
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>272.3</v>
+      </c>
+      <c r="D230">
+        <v>33.86</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45223.125138888892</v>
+      </c>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="D231">
+        <v>33.89</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45223.166805555556</v>
+      </c>
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>272.5</v>
+      </c>
+      <c r="D232">
+        <v>33.909999999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45223.208472222221</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>272.8</v>
+      </c>
+      <c r="D233">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45223.250138888892</v>
+      </c>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="D234">
+        <v>34.020000000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45223.291805555556</v>
+      </c>
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="D235">
+        <v>34.07</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45223.333472222221</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>273.2</v>
+      </c>
+      <c r="D236">
+        <v>34.090000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45223.375138888892</v>
+      </c>
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>273.3</v>
+      </c>
+      <c r="D237">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A228:E237">
+    <sortCondition ref="A228:A237"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{87AD9096-815B-40EF-B657-54B894404CFD}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC80951E-AB4A-405D-9C37-6A6E02941EF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,6 +3733,118 @@
         <v>34.119999999999997</v>
       </c>
     </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45223.416805555556</v>
+      </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="D238">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45223.458472222221</v>
+      </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>273.5</v>
+      </c>
+      <c r="D239">
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45223.500138888892</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="D240">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45223.541805555556</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>273.2</v>
+      </c>
+      <c r="D241">
+        <v>34.090000000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45223.583472222221</v>
+      </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="D242">
+        <v>34.07</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45223.625138888892</v>
+      </c>
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="D243">
+        <v>34.020000000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45223.666805555556</v>
+      </c>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>272.7</v>
+      </c>
+      <c r="D244">
+        <v>33.96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45223.708472222221</v>
+      </c>
+      <c r="B245" s="4">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="D245">
+        <v>33.94</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A228:E237">
     <sortCondition ref="A228:A237"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC80951E-AB4A-405D-9C37-6A6E02941EF0}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{76BF5516-7064-4123-AEF5-E755ACB69849}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,6 +3845,630 @@
         <v>33.94</v>
       </c>
     </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45223.750138888892</v>
+      </c>
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="D246">
+        <v>33.89</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45223.791805555556</v>
+      </c>
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="D247">
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45223.833472222221</v>
+      </c>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>271.8</v>
+      </c>
+      <c r="D248">
+        <v>33.729999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45223.875138888892</v>
+      </c>
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="D249">
+        <v>33.68</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45223.916805555556</v>
+      </c>
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>271.2</v>
+      </c>
+      <c r="D250">
+        <v>33.58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45223.958472222221</v>
+      </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="D251">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45224.000138888892</v>
+      </c>
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>270.7</v>
+      </c>
+      <c r="D252">
+        <v>33.450000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45224.041805555556</v>
+      </c>
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="D253">
+        <v>33.369999999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45224.083472222221</v>
+      </c>
+      <c r="B254" s="4">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>270</v>
+      </c>
+      <c r="D254">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45224.125138888892</v>
+      </c>
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>269.5</v>
+      </c>
+      <c r="D255">
+        <v>33.14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45224.166805555556</v>
+      </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>269.10000000000002</v>
+      </c>
+      <c r="D256">
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45224.208472222221</v>
+      </c>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="D257">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45224.250138888892</v>
+      </c>
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="D258">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45224.291805555556</v>
+      </c>
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>267.7</v>
+      </c>
+      <c r="D259">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45224.333472222221</v>
+      </c>
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>267.2</v>
+      </c>
+      <c r="D260">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45224.375138888892</v>
+      </c>
+      <c r="B261" s="4">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>266.8</v>
+      </c>
+      <c r="D261">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45224.416805555556</v>
+      </c>
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="D262">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45224.458472222221</v>
+      </c>
+      <c r="B263" s="4">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>266</v>
+      </c>
+      <c r="D263">
+        <v>32.229999999999997</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45224.500138888892</v>
+      </c>
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>265.5</v>
+      </c>
+      <c r="D264">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45224.541805555556</v>
+      </c>
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="D265">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45224.583472222221</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>264.8</v>
+      </c>
+      <c r="D266">
+        <v>31.93</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45224.625138888892</v>
+      </c>
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>264.3</v>
+      </c>
+      <c r="D267">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45224.666805555556</v>
+      </c>
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="D268">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45224.708472222221</v>
+      </c>
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>263.5</v>
+      </c>
+      <c r="D269">
+        <v>31.59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45224.750138888892</v>
+      </c>
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>263.2</v>
+      </c>
+      <c r="D270">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45224.791805555556</v>
+      </c>
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="D271">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45224.833472222221</v>
+      </c>
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>262.7</v>
+      </c>
+      <c r="D272">
+        <v>31.39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>45224.875138888892</v>
+      </c>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>1313</v>
+      </c>
+      <c r="D273">
+        <v>446.79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>45224.958472222221</v>
+      </c>
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>261.5</v>
+      </c>
+      <c r="D274">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>45225.000138888892</v>
+      </c>
+      <c r="B275" s="4"/>
+      <c r="C275"/>
+      <c r="D275"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>45225.041805555556</v>
+      </c>
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>260.5</v>
+      </c>
+      <c r="D276">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>45225.083472222221</v>
+      </c>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>260</v>
+      </c>
+      <c r="D277">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>45225.125138888892</v>
+      </c>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>259.5</v>
+      </c>
+      <c r="D278">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45225.166805555556</v>
+      </c>
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>259</v>
+      </c>
+      <c r="D279">
+        <v>30.45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45225.208472222221</v>
+      </c>
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>258.7</v>
+      </c>
+      <c r="D280">
+        <v>30.37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45225.250138888892</v>
+      </c>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>258.3</v>
+      </c>
+      <c r="D281">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45225.291805555556</v>
+      </c>
+      <c r="B282" s="4">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="D282">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45225.333472222221</v>
+      </c>
+      <c r="B283" s="4">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>257.5</v>
+      </c>
+      <c r="D283">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45225.375138888892</v>
+      </c>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>257</v>
+      </c>
+      <c r="D284">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45225.416805555556</v>
+      </c>
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>256.7</v>
+      </c>
+      <c r="D285">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45225.458472222221</v>
+      </c>
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>256.3</v>
+      </c>
+      <c r="D286">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45225.500138888892</v>
+      </c>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>255.9</v>
+      </c>
+      <c r="D287">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45225.541805555556</v>
+      </c>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>255.6</v>
+      </c>
+      <c r="D288">
+        <v>29.59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45225.583472222221</v>
+      </c>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>255.5</v>
+      </c>
+      <c r="D289">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45225.625138888892</v>
+      </c>
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>255.4</v>
+      </c>
+      <c r="D290">
+        <v>29.54</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A228:E237">
     <sortCondition ref="A228:A237"/>

--- a/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
+++ b/dados_setor_eletrico/16024900 - UHE BALBINA PITINGUINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{76BF5516-7064-4123-AEF5-E755ACB69849}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{79435C7C-BF1D-4617-BCC5-B5010CC34D7D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="G278" sqref="G278"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295:B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4469,6 +4469,272 @@
         <v>29.54</v>
       </c>
     </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45225.666805555556</v>
+      </c>
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>255.3</v>
+      </c>
+      <c r="D291">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45225.708472222221</v>
+      </c>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>254.9</v>
+      </c>
+      <c r="D292">
+        <v>29.42</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45225.750138888892</v>
+      </c>
+      <c r="B293" s="4">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>254.6</v>
+      </c>
+      <c r="D293">
+        <v>29.34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45225.791805555556</v>
+      </c>
+      <c r="B294" s="4">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>254.2</v>
+      </c>
+      <c r="D294">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45225.833472222221</v>
+      </c>
+      <c r="B295" s="4">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>254</v>
+      </c>
+      <c r="D295">
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45225.875138888892</v>
+      </c>
+      <c r="B296" s="4">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>253.8</v>
+      </c>
+      <c r="D296">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45225.916805555556</v>
+      </c>
+      <c r="B297" s="4">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>253.6</v>
+      </c>
+      <c r="D297">
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45225.958472222221</v>
+      </c>
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>253.5</v>
+      </c>
+      <c r="D298">
+        <v>29.06</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45226.000138888892</v>
+      </c>
+      <c r="B299" s="4">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>253.3</v>
+      </c>
+      <c r="D299">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45226.041805555556</v>
+      </c>
+      <c r="B300" s="4">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>253</v>
+      </c>
+      <c r="D300">
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45226.083472222221</v>
+      </c>
+      <c r="B301" s="4">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>252.8</v>
+      </c>
+      <c r="D301">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45226.125138888892</v>
+      </c>
+      <c r="B302" s="4">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>252.5</v>
+      </c>
+      <c r="D302">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45226.166805555556</v>
+      </c>
+      <c r="B303" s="4">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>252.3</v>
+      </c>
+      <c r="D303">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45226.208472222221</v>
+      </c>
+      <c r="B304" s="4">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>252.1</v>
+      </c>
+      <c r="D304">
+        <v>28.72</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45226.250138888892</v>
+      </c>
+      <c r="B305" s="4">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>251.8</v>
+      </c>
+      <c r="D305">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45226.291805555556</v>
+      </c>
+      <c r="B306" s="4">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>251.5</v>
+      </c>
+      <c r="D306">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45226.333472222221</v>
+      </c>
+      <c r="B307" s="4">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>251.1</v>
+      </c>
+      <c r="D307">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45226.375138888892</v>
+      </c>
+      <c r="B308" s="4">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>250.9</v>
+      </c>
+      <c r="D308">
+        <v>28.42</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>45226.416805555556</v>
+      </c>
+      <c r="B309" s="4">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>250.8</v>
+      </c>
+      <c r="D309">
+        <v>28.39</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A228:E237">
     <sortCondition ref="A228:A237"/>
